--- a/data/pneumoniae/pneumonia_original_data/pneumoniae_original_data_one_file.xlsx
+++ b/data/pneumoniae/pneumonia_original_data/pneumoniae_original_data_one_file.xlsx
@@ -5,17 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s153020\Documents\pneumoniae\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s153020\GitHub\wzy_polymerases\data\pneumoniae\pneumonia_original_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="type,strain,accession" sheetId="2" r:id="rId2"/>
-    <sheet name="Initial transferase association" sheetId="3" r:id="rId3"/>
-    <sheet name="Homology groups, products" sheetId="4" r:id="rId4"/>
+    <sheet name="type,strain,accession" sheetId="2" r:id="rId1"/>
+    <sheet name="Initial transferase association" sheetId="3" r:id="rId2"/>
+    <sheet name="Homology groups, products" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,42 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="674">
-  <si>
-    <t>Blast</t>
-  </si>
-  <si>
-    <t>Blast-CAZy</t>
-  </si>
-  <si>
-    <t>Function, EC</t>
-  </si>
-  <si>
-    <t>HMM-CAZy</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="663">
   <si>
     <t>gene</t>
-  </si>
-  <si>
-    <t>Strain 1</t>
-  </si>
-  <si>
-    <t>Strain 2</t>
-  </si>
-  <si>
-    <t>Gene</t>
-  </si>
-  <si>
-    <t>Accesion wzg</t>
-  </si>
-  <si>
-    <t>AY336008</t>
-  </si>
-  <si>
-    <t>Pfam domain for WchA, Wcil, WcjG, WcjH</t>
-  </si>
-  <si>
-    <t>PF02397</t>
   </si>
   <si>
     <t>519/43</t>
@@ -2490,63 +2456,1305 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:G91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D1" activeCellId="3" sqref="A1:A1048576 B1:B1048576 C1:C1048576 D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="15.75">
+      <c r="A1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>561</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D3" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D6" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D7" t="s">
+        <v>564</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D8" t="s">
+        <v>565</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s">
-        <v>6</v>
+      <c r="C9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75">
+      <c r="A13" s="1">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D13" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D14" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75">
+      <c r="A18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="1">
+        <v>34355</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D19" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="31.5">
+      <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75">
+      <c r="A21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D21" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1">
+        <v>34356</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75">
+      <c r="A23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75">
+      <c r="A24" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D24" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="31.5">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D25" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D26" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75">
+      <c r="A27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B27" s="1">
+        <v>6312</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D27" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75">
+      <c r="A28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D28" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75">
+      <c r="A29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D29" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75">
+      <c r="A30" s="1">
+        <v>13</v>
+      </c>
+      <c r="B30" s="1">
+        <v>34357</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75">
+      <c r="A31" s="1">
+        <v>14</v>
+      </c>
+      <c r="B31" s="1">
+        <v>34359</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75">
+      <c r="A32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D32" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75">
+      <c r="A33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="31.5">
+      <c r="A34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75">
+      <c r="A35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75">
+      <c r="A36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D36" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75">
+      <c r="A37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75">
+      <c r="A38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D38" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75">
+      <c r="A39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D39" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75">
+      <c r="A40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75">
+      <c r="A41" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D41" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75">
+      <c r="A42" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D42" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75">
+      <c r="A43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D43" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75">
+      <c r="A44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D44" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75">
+      <c r="A45" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D45" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75">
+      <c r="A46" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D46" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75">
+      <c r="A47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75">
+      <c r="A48" s="1">
+        <v>20</v>
+      </c>
+      <c r="B48" s="1">
+        <v>34365</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D48" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75">
+      <c r="A49" s="1">
+        <v>21</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D49" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75">
+      <c r="A50" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D50" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75">
+      <c r="A51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D51" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75">
+      <c r="A52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75">
+      <c r="A53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D53" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75">
+      <c r="A54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D54" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75">
+      <c r="A55" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D55" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75">
+      <c r="A56" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D56" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75">
+      <c r="A57" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D57" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75">
+      <c r="A58" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D58" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75">
+      <c r="A59" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D59" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75">
+      <c r="A60" s="1">
+        <v>27</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D60" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75">
+      <c r="A61" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="1">
+        <v>34372</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D61" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75">
+      <c r="A62" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D62" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75">
+      <c r="A63" s="1">
+        <v>29</v>
+      </c>
+      <c r="B63" s="1">
+        <v>34373</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D63" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75">
+      <c r="A64" s="1">
+        <v>31</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D64" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75">
+      <c r="A65" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D65" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75">
+      <c r="A66" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D66" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75">
+      <c r="A67" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D67" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75">
+      <c r="A68" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D68" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75">
+      <c r="A69" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="D69" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75">
+      <c r="A70" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D70" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="31.5">
+      <c r="A71" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D71" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75">
+      <c r="A72" s="1">
+        <v>34</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D72" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75">
+      <c r="A73" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D73" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75">
+      <c r="A74" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D74" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75">
+      <c r="A75" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D75" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75">
+      <c r="A76" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D76" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75">
+      <c r="A77" s="1">
+        <v>36</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D77" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75">
+      <c r="A78" s="1">
+        <v>37</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D78" t="s">
+        <v>636</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75">
+      <c r="A79" s="1">
+        <v>38</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D79" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75">
+      <c r="A80" s="1">
+        <v>39</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D80" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="31.5">
+      <c r="A81" s="1">
+        <v>40</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D81" t="s">
+        <v>639</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75">
+      <c r="A82" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D82" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75">
+      <c r="A83" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B83" s="1">
+        <v>6803</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D83" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75">
+      <c r="A84" s="1">
+        <v>42</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D84" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75">
+      <c r="A85" s="1">
+        <v>43</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D85" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75">
+      <c r="A86" s="1">
+        <v>44</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D86" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75">
+      <c r="A87" s="1">
+        <v>45</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D87" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75">
+      <c r="A88" s="1">
+        <v>46</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D88" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75">
+      <c r="A89" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="D89" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15.75">
+      <c r="A90" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D90" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15.75">
+      <c r="A91" s="1">
+        <v>48</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="D91" t="s">
+        <v>651</v>
       </c>
     </row>
   </sheetData>
@@ -2557,1349 +3765,40 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G91"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="2" max="2" width="18.54296875" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15.5">
-      <c r="A1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>663</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.5">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>572</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.5">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.5">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D4" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.5">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.5">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.5">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D7" t="s">
-        <v>575</v>
-      </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.5">
-      <c r="A8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D8" t="s">
-        <v>576</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.5">
-      <c r="A9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D9" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.5">
-      <c r="A10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D10" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.5">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D11" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.5">
-      <c r="A12" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D12" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.5">
-      <c r="A13" s="1">
-        <v>8</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D13" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.5">
-      <c r="A14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D14" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.5">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D15" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.5">
-      <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D16" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.5">
-      <c r="A17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D17" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.5">
-      <c r="A18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="1">
-        <v>34355</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D18" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.5">
-      <c r="A19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D19" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="31">
-      <c r="A20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D20" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.5">
-      <c r="A21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D21" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.5">
-      <c r="A22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="1">
-        <v>34356</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D22" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.5">
-      <c r="A23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D23" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.5">
-      <c r="A24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D24" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="31">
-      <c r="A25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D25" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.5">
-      <c r="A26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D26" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.5">
-      <c r="A27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B27" s="1">
-        <v>6312</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D27" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.5">
-      <c r="A28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D28" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.5">
-      <c r="A29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D29" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.5">
-      <c r="A30" s="1">
-        <v>13</v>
-      </c>
-      <c r="B30" s="1">
-        <v>34357</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D30" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.5">
-      <c r="A31" s="1">
-        <v>14</v>
-      </c>
-      <c r="B31" s="1">
-        <v>34359</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D31" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.5">
-      <c r="A32" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D32" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.5">
-      <c r="A33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D33" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="31">
-      <c r="A34" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D34" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.5">
-      <c r="A35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D35" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.5">
-      <c r="A36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D36" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.5">
-      <c r="A37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D37" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.5">
-      <c r="A38" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D38" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.5">
-      <c r="A39" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D39" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.5">
-      <c r="A40" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D40" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.5">
-      <c r="A41" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="D41" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.5">
-      <c r="A42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D42" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.5">
-      <c r="A43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D43" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.5">
-      <c r="A44" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D44" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.5">
-      <c r="A45" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D45" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.5">
-      <c r="A46" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D46" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.5">
-      <c r="A47" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D47" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.5">
-      <c r="A48" s="1">
-        <v>20</v>
-      </c>
-      <c r="B48" s="1">
-        <v>34365</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D48" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.5">
-      <c r="A49" s="1">
-        <v>21</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D49" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.5">
-      <c r="A50" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D50" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.5">
-      <c r="A51" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="D51" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.5">
-      <c r="A52" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D52" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.5">
-      <c r="A53" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D53" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.5">
-      <c r="A54" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="D54" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.5">
-      <c r="A55" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D55" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.5">
-      <c r="A56" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D56" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.5">
-      <c r="A57" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="D57" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.5">
-      <c r="A58" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D58" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.5">
-      <c r="A59" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D59" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.5">
-      <c r="A60" s="1">
-        <v>27</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D60" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.5">
-      <c r="A61" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B61" s="1">
-        <v>34372</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D61" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.5">
-      <c r="A62" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D62" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.5">
-      <c r="A63" s="1">
-        <v>29</v>
-      </c>
-      <c r="B63" s="1">
-        <v>34373</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D63" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.5">
-      <c r="A64" s="1">
-        <v>31</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D64" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="15.5">
-      <c r="A65" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D65" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="15.5">
-      <c r="A66" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="D66" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.5">
-      <c r="A67" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D67" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="15.5">
-      <c r="A68" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D68" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="15.5">
-      <c r="A69" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D69" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="15.5">
-      <c r="A70" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="D70" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="31">
-      <c r="A71" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="D71" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.5">
-      <c r="A72" s="1">
-        <v>34</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="D72" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="15.5">
-      <c r="A73" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D73" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="15.5">
-      <c r="A74" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D74" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="15.5">
-      <c r="A75" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="D75" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="15.5">
-      <c r="A76" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D76" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="15.5">
-      <c r="A77" s="1">
-        <v>36</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="D77" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="15.5">
-      <c r="A78" s="1">
-        <v>37</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D78" t="s">
-        <v>647</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="15.5">
-      <c r="A79" s="1">
-        <v>38</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="D79" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="15.5">
-      <c r="A80" s="1">
-        <v>39</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D80" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="31">
-      <c r="A81" s="1">
-        <v>40</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="D81" t="s">
-        <v>650</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="15.5">
-      <c r="A82" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="D82" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="15.5">
-      <c r="A83" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B83" s="1">
-        <v>6803</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="D83" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="15.5">
-      <c r="A84" s="1">
-        <v>42</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="D84" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="15.5">
-      <c r="A85" s="1">
-        <v>43</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D85" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="15.5">
-      <c r="A86" s="1">
-        <v>44</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="D86" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="15.5">
-      <c r="A87" s="1">
-        <v>45</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D87" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" ht="15.5">
-      <c r="A88" s="1">
-        <v>46</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D88" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="15.5">
-      <c r="A89" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="D89" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="15.5">
-      <c r="A90" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D90" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" ht="15.5">
-      <c r="A91" s="1">
-        <v>48</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="D91" t="s">
-        <v>662</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.5">
+    <row r="1" spans="1:8" ht="38.25">
       <c r="A1" s="4" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="37.5" customHeight="1">
       <c r="A2" s="19" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
@@ -3908,13 +3807,13 @@
         <v>45</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3926,21 +3825,21 @@
         <v>68</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="25.5">
       <c r="A4" s="19"/>
       <c r="B4" s="17"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3948,10 +3847,10 @@
       <c r="B5" s="17"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3963,24 +3862,24 @@
         <v>83</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="25.5">
       <c r="A7" s="19"/>
       <c r="B7" s="17"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="25.5">
       <c r="A8" s="19"/>
       <c r="B8" s="7">
         <v>6</v>
@@ -3989,10 +3888,10 @@
         <v>93</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -4004,10 +3903,10 @@
         <v>127</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4019,13 +3918,13 @@
         <v>65</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="25.5">
       <c r="A11" s="19"/>
       <c r="B11" s="7">
         <v>9</v>
@@ -4034,10 +3933,10 @@
         <v>103</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4049,13 +3948,13 @@
         <v>121</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="25">
+    </row>
+    <row r="13" spans="1:8" ht="25.5">
       <c r="A13" s="19"/>
       <c r="B13" s="7">
         <v>11</v>
@@ -4064,10 +3963,10 @@
         <v>126</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4079,13 +3978,13 @@
         <v>139</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="25.5">
       <c r="A15" s="19"/>
       <c r="B15" s="7">
         <v>13</v>
@@ -4094,10 +3993,10 @@
         <v>144</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4109,10 +4008,10 @@
         <v>150</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -4124,10 +4023,10 @@
         <v>152</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -4139,13 +4038,13 @@
         <v>160</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="25">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="25.5">
       <c r="A19" s="19"/>
       <c r="B19" s="7">
         <v>17</v>
@@ -4154,10 +4053,10 @@
         <v>163</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -4169,10 +4068,10 @@
         <v>166</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -4184,10 +4083,10 @@
         <v>168</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -4199,10 +4098,10 @@
         <v>251</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -4214,13 +4113,13 @@
         <v>223</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E23" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="25">
+    <row r="24" spans="1:5" ht="25.5">
       <c r="A24" s="19"/>
       <c r="B24" s="7">
         <v>24</v>
@@ -4229,7 +4128,7 @@
         <v>238</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="E24" s="9">
         <v>20</v>
@@ -4244,7 +4143,7 @@
         <v>135</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E25" s="9">
         <v>2</v>
@@ -4259,7 +4158,7 @@
         <v>230</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E26" s="9">
         <v>13</v>
@@ -4274,10 +4173,10 @@
         <v>234</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -4289,10 +4188,10 @@
         <v>161</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -4304,10 +4203,10 @@
         <v>161</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -4319,10 +4218,10 @@
         <v>243</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -4334,7 +4233,7 @@
         <v>252</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="E31" s="9">
         <v>34</v>
@@ -4349,13 +4248,13 @@
         <v>254</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E32" s="9">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="25">
+    <row r="33" spans="1:5" ht="25.5">
       <c r="A33" s="19"/>
       <c r="B33" s="7">
         <v>34</v>
@@ -4364,10 +4263,10 @@
         <v>112</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -4379,10 +4278,10 @@
         <v>179</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -4394,13 +4293,13 @@
         <v>240</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E35" s="9">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="25">
+    <row r="36" spans="1:5" ht="25.5">
       <c r="A36" s="19"/>
       <c r="B36" s="7">
         <v>38</v>
@@ -4409,13 +4308,13 @@
         <v>249</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="E36" s="9">
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15.5">
+    <row r="37" spans="1:5" ht="15.75">
       <c r="A37" s="10"/>
       <c r="B37" s="7">
         <v>33</v>
@@ -4424,22 +4323,22 @@
         <v>260</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E37" s="9">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.5">
+    <row r="38" spans="1:5" ht="15.75">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="12"/>
       <c r="D38" s="11"/>
       <c r="E38" s="13"/>
     </row>
-    <row r="39" spans="1:5" ht="25">
+    <row r="39" spans="1:5" ht="25.5">
       <c r="A39" s="17" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="B39" s="17">
         <v>3</v>
@@ -4448,35 +4347,35 @@
         <v>71</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="25.5">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="18"/>
       <c r="D40" s="8" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="25.5">
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="18"/>
       <c r="D41" s="8" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="25">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="25.5">
       <c r="A42" s="17"/>
       <c r="B42" s="7">
         <v>20</v>
@@ -4485,13 +4384,13 @@
         <v>171</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="25">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="25.5">
       <c r="A43" s="17"/>
       <c r="B43" s="7">
         <v>36</v>
@@ -4500,13 +4399,13 @@
         <v>257</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="E43" s="9">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="25">
+    <row r="44" spans="1:5" ht="25.5">
       <c r="A44" s="17"/>
       <c r="B44" s="7">
         <v>37</v>
@@ -4515,7 +4414,7 @@
         <v>213</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="E44" s="9">
         <v>4</v>
@@ -4530,22 +4429,22 @@
         <v>217</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="E45" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15.5">
+    <row r="46" spans="1:5" ht="15.75">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="12"/>
       <c r="D46" s="11"/>
       <c r="E46" s="13"/>
     </row>
-    <row r="47" spans="1:5" ht="25">
+    <row r="47" spans="1:5" ht="25.5">
       <c r="A47" s="17" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B47" s="17">
         <v>2</v>
@@ -4554,21 +4453,21 @@
         <v>67</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="25.5">
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="18"/>
       <c r="D48" s="8" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -4576,10 +4475,10 @@
       <c r="B49" s="17"/>
       <c r="C49" s="18"/>
       <c r="D49" s="8" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -4591,10 +4490,10 @@
         <v>127</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -4606,7 +4505,7 @@
         <v>121</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="E51" s="9">
         <v>31</v>
@@ -4621,22 +4520,22 @@
         <v>182</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15.5">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="12"/>
       <c r="D53" s="11"/>
       <c r="E53" s="13"/>
     </row>
-    <row r="54" spans="1:5" ht="25">
+    <row r="54" spans="1:5" ht="25.5">
       <c r="A54" s="17" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B54" s="9">
         <v>1</v>
@@ -4645,10 +4544,10 @@
         <v>45</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -4660,7 +4559,7 @@
         <v>67</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E55" s="9">
         <v>39</v>
@@ -4675,13 +4574,13 @@
         <v>182</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="E56" s="9">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="15.5">
+    <row r="57" spans="1:5" ht="15.75">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="12"/>
@@ -4706,37 +4605,37 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A247" sqref="A247:XFD247"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="53.26953125" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:9" ht="15.75">
       <c r="A1" s="15" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.5">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="14">
         <v>0</v>
       </c>
@@ -4744,16 +4643,16 @@
         <v>90</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15.5">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75">
       <c r="A3" s="14">
         <v>1</v>
       </c>
@@ -4761,13 +4660,13 @@
         <v>90</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="15.5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75">
       <c r="A4" s="14">
         <v>2</v>
       </c>
@@ -4775,16 +4674,16 @@
         <v>90</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.5">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75">
       <c r="A5" s="14">
         <v>3</v>
       </c>
@@ -4792,13 +4691,13 @@
         <v>90</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="15.5">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75">
       <c r="A6" s="14">
         <v>4</v>
       </c>
@@ -4806,13 +4705,13 @@
         <v>70</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75">
       <c r="A7" s="14">
         <v>5</v>
       </c>
@@ -4820,13 +4719,13 @@
         <v>65</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="15.5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75">
       <c r="A8" s="14">
         <v>6</v>
       </c>
@@ -4834,13 +4733,13 @@
         <v>58</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="15.5">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="14">
         <v>7</v>
       </c>
@@ -4848,13 +4747,13 @@
         <v>41</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75">
       <c r="A10" s="14">
         <v>8</v>
       </c>
@@ -4862,22 +4761,22 @@
         <v>41</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="G10" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="H10" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
       <c r="I10" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="15.5">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="14">
         <v>9</v>
       </c>
@@ -4885,13 +4784,13 @@
         <v>41</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.5">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75">
       <c r="A12" s="14">
         <v>10</v>
       </c>
@@ -4899,13 +4798,13 @@
         <v>40</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.5">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75">
       <c r="A13" s="14">
         <v>11</v>
       </c>
@@ -4913,13 +4812,13 @@
         <v>39</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15.5">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="14">
         <v>12</v>
       </c>
@@ -4927,13 +4826,13 @@
         <v>33</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75">
       <c r="A15" s="14">
         <v>15</v>
       </c>
@@ -4941,13 +4840,13 @@
         <v>27</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15.5">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="14">
         <v>13</v>
       </c>
@@ -4955,13 +4854,13 @@
         <v>26</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -4969,13 +4868,13 @@
         <v>24</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.5">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75">
       <c r="A18" s="14">
         <v>19</v>
       </c>
@@ -4983,13 +4882,13 @@
         <v>21</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75">
       <c r="A19" s="14">
         <v>17</v>
       </c>
@@ -4997,13 +4896,13 @@
         <v>20</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75">
       <c r="A20" s="14">
         <v>18</v>
       </c>
@@ -5011,13 +4910,13 @@
         <v>19</v>
       </c>
       <c r="C20" s="14" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.5">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -5025,13 +4924,13 @@
         <v>18</v>
       </c>
       <c r="C21" s="14" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.5">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -5039,13 +4938,13 @@
         <v>16</v>
       </c>
       <c r="C22" s="14" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.5">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75">
       <c r="A23" s="14">
         <v>23</v>
       </c>
@@ -5053,13 +4952,13 @@
         <v>15</v>
       </c>
       <c r="C23" s="14" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.5">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75">
       <c r="A24" s="14">
         <v>24</v>
       </c>
@@ -5067,13 +4966,13 @@
         <v>13</v>
       </c>
       <c r="C24" s="14" t="s">
+        <v>334</v>
+      </c>
+      <c r="D24" s="14" t="s">
         <v>345</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.5">
+    </row>
+    <row r="25" spans="1:4" ht="15.75">
       <c r="A25" s="14">
         <v>25</v>
       </c>
@@ -5081,13 +4980,13 @@
         <v>13</v>
       </c>
       <c r="C25" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.5">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75">
       <c r="A26" s="14">
         <v>26</v>
       </c>
@@ -5095,13 +4994,13 @@
         <v>12</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.5">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75">
       <c r="A27" s="14">
         <v>27</v>
       </c>
@@ -5109,13 +5008,13 @@
         <v>12</v>
       </c>
       <c r="C27" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.5">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75">
       <c r="A28" s="14">
         <v>28</v>
       </c>
@@ -5123,13 +5022,13 @@
         <v>12</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.5">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75">
       <c r="A29" s="14">
         <v>31</v>
       </c>
@@ -5137,13 +5036,13 @@
         <v>12</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.75">
       <c r="A30" s="14">
         <v>47</v>
       </c>
@@ -5151,13 +5050,13 @@
         <v>12</v>
       </c>
       <c r="C30" s="14" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75">
       <c r="A31" s="14">
         <v>29</v>
       </c>
@@ -5165,13 +5064,13 @@
         <v>11</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.5">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75">
       <c r="A32" s="14">
         <v>32</v>
       </c>
@@ -5179,13 +5078,13 @@
         <v>10</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.5">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.75">
       <c r="A33" s="14">
         <v>33</v>
       </c>
@@ -5193,13 +5092,13 @@
         <v>9</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.5">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75">
       <c r="A34" s="14">
         <v>39</v>
       </c>
@@ -5207,13 +5106,13 @@
         <v>9</v>
       </c>
       <c r="C34" s="14" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75">
       <c r="A35" s="14">
         <v>40</v>
       </c>
@@ -5221,13 +5120,13 @@
         <v>9</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75">
       <c r="A36" s="14">
         <v>41</v>
       </c>
@@ -5235,13 +5134,13 @@
         <v>9</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.5">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75">
       <c r="A37" s="14">
         <v>42</v>
       </c>
@@ -5249,13 +5148,13 @@
         <v>9</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.5">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75">
       <c r="A38" s="14">
         <v>51</v>
       </c>
@@ -5263,13 +5162,13 @@
         <v>9</v>
       </c>
       <c r="C38" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D38" s="14" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.5">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.75">
       <c r="A39" s="14">
         <v>35</v>
       </c>
@@ -5277,13 +5176,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.5">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75">
       <c r="A40" s="14">
         <v>36</v>
       </c>
@@ -5291,13 +5190,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.5">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.75">
       <c r="A41" s="14">
         <v>37</v>
       </c>
@@ -5305,13 +5204,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.5">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.75">
       <c r="A42" s="14">
         <v>38</v>
       </c>
@@ -5319,13 +5218,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.5">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.75">
       <c r="A43" s="14">
         <v>52</v>
       </c>
@@ -5333,13 +5232,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.75">
       <c r="A44" s="14">
         <v>44</v>
       </c>
@@ -5347,13 +5246,13 @@
         <v>7</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.5">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75">
       <c r="A45" s="14">
         <v>45</v>
       </c>
@@ -5361,13 +5260,13 @@
         <v>7</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D45" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.75">
       <c r="A46" s="14">
         <v>48</v>
       </c>
@@ -5375,13 +5274,13 @@
         <v>7</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D46" s="14" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.5">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.75">
       <c r="A47" s="14">
         <v>49</v>
       </c>
@@ -5389,13 +5288,13 @@
         <v>7</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="D47" s="14" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.5">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.75">
       <c r="A48" s="14">
         <v>50</v>
       </c>
@@ -5403,13 +5302,13 @@
         <v>7</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="D48" s="14" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.75">
       <c r="A49" s="14">
         <v>53</v>
       </c>
@@ -5417,13 +5316,13 @@
         <v>7</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="D49" s="14" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.5">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.75">
       <c r="A50" s="14">
         <v>59</v>
       </c>
@@ -5431,13 +5330,13 @@
         <v>7</v>
       </c>
       <c r="C50" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D50" s="14" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.5">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.75">
       <c r="A51" s="14">
         <v>43</v>
       </c>
@@ -5445,13 +5344,13 @@
         <v>6</v>
       </c>
       <c r="C51" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D51" s="14" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.5">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.75">
       <c r="A52" s="14">
         <v>55</v>
       </c>
@@ -5459,13 +5358,13 @@
         <v>6</v>
       </c>
       <c r="C52" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D52" s="14" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.5">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.75">
       <c r="A53" s="14">
         <v>56</v>
       </c>
@@ -5473,13 +5372,13 @@
         <v>6</v>
       </c>
       <c r="C53" s="14" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D53" s="14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.75">
       <c r="A54" s="14">
         <v>57</v>
       </c>
@@ -5487,13 +5386,13 @@
         <v>6</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.5">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75">
       <c r="A55" s="14">
         <v>58</v>
       </c>
@@ -5501,13 +5400,13 @@
         <v>6</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="D55" s="14" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.5">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75">
       <c r="A56" s="14">
         <v>60</v>
       </c>
@@ -5515,13 +5414,13 @@
         <v>6</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D56" s="14" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.5">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75">
       <c r="A57" s="14">
         <v>116</v>
       </c>
@@ -5529,13 +5428,13 @@
         <v>6</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D57" s="14" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.5">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75">
       <c r="A58" s="14">
         <v>34</v>
       </c>
@@ -5543,13 +5442,13 @@
         <v>5</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.5">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="15.75">
       <c r="A59" s="14">
         <v>54</v>
       </c>
@@ -5557,13 +5456,13 @@
         <v>5</v>
       </c>
       <c r="C59" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D59" s="14" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.5">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="15.75">
       <c r="A60" s="14">
         <v>61</v>
       </c>
@@ -5571,13 +5470,13 @@
         <v>5</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="D60" s="14" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.5">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15.75">
       <c r="A61" s="14">
         <v>62</v>
       </c>
@@ -5585,13 +5484,13 @@
         <v>5</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D61" s="14" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.5">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75">
       <c r="A62" s="14">
         <v>63</v>
       </c>
@@ -5599,13 +5498,13 @@
         <v>5</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D62" s="14" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.5">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75">
       <c r="A63" s="14">
         <v>64</v>
       </c>
@@ -5613,13 +5512,13 @@
         <v>5</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D63" s="14" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.5">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="15.75">
       <c r="A64" s="14">
         <v>65</v>
       </c>
@@ -5627,13 +5526,13 @@
         <v>5</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D64" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="15.75">
       <c r="A65" s="14">
         <v>66</v>
       </c>
@@ -5641,13 +5540,13 @@
         <v>5</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D65" s="14" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.5">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="15.75">
       <c r="A66" s="14">
         <v>67</v>
       </c>
@@ -5655,13 +5554,13 @@
         <v>5</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D66" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="15.75">
       <c r="A67" s="14">
         <v>68</v>
       </c>
@@ -5669,13 +5568,13 @@
         <v>5</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D67" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="15.75">
       <c r="A68" s="14">
         <v>69</v>
       </c>
@@ -5683,13 +5582,13 @@
         <v>5</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.5">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="15.75">
       <c r="A69" s="14">
         <v>70</v>
       </c>
@@ -5697,13 +5596,13 @@
         <v>5</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="D69" s="14" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.5">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="15.75">
       <c r="A70" s="14">
         <v>71</v>
       </c>
@@ -5711,13 +5610,13 @@
         <v>5</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D70" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="15.75">
       <c r="A71" s="14">
         <v>72</v>
       </c>
@@ -5725,13 +5624,13 @@
         <v>5</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D71" s="14" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.5">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75">
       <c r="A72" s="14">
         <v>73</v>
       </c>
@@ -5739,13 +5638,13 @@
         <v>5</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D72" s="14" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.5">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="15.75">
       <c r="A73" s="14">
         <v>74</v>
       </c>
@@ -5753,13 +5652,13 @@
         <v>5</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D73" s="14" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.5">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="15.75">
       <c r="A74" s="14">
         <v>75</v>
       </c>
@@ -5767,13 +5666,13 @@
         <v>5</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="D74" s="14" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.5">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="15.75">
       <c r="A75" s="14">
         <v>76</v>
       </c>
@@ -5781,13 +5680,13 @@
         <v>5</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.5">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="15.75">
       <c r="A76" s="14">
         <v>77</v>
       </c>
@@ -5795,13 +5694,13 @@
         <v>5</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D76" s="14" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.5">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="15.75">
       <c r="A77" s="14">
         <v>78</v>
       </c>
@@ -5809,13 +5708,13 @@
         <v>5</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="D77" s="14" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="15.75">
       <c r="A78" s="14">
         <v>79</v>
       </c>
@@ -5823,13 +5722,13 @@
         <v>5</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="15.75">
       <c r="A79" s="14">
         <v>80</v>
       </c>
@@ -5837,13 +5736,13 @@
         <v>5</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D79" s="14" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.5">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="15.75">
       <c r="A80" s="14">
         <v>129</v>
       </c>
@@ -5851,13 +5750,13 @@
         <v>5</v>
       </c>
       <c r="C80" s="14" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="D80" s="14" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.5">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="15.75">
       <c r="A81" s="14">
         <v>46</v>
       </c>
@@ -5865,13 +5764,13 @@
         <v>4</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D81" s="14" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.5">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="15.75">
       <c r="A82" s="14">
         <v>81</v>
       </c>
@@ -5879,13 +5778,13 @@
         <v>4</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="D82" s="14" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.5">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="15.75">
       <c r="A83" s="14">
         <v>82</v>
       </c>
@@ -5893,13 +5792,13 @@
         <v>4</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D83" s="14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="15.75">
       <c r="A84" s="14">
         <v>83</v>
       </c>
@@ -5907,13 +5806,13 @@
         <v>4</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D84" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75">
       <c r="A85" s="14">
         <v>84</v>
       </c>
@@ -5921,13 +5820,13 @@
         <v>4</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D85" s="14" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.5">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="15.75">
       <c r="A86" s="14">
         <v>85</v>
       </c>
@@ -5935,13 +5834,13 @@
         <v>4</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D86" s="14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="15.5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="15.75">
       <c r="A87" s="14">
         <v>86</v>
       </c>
@@ -5949,13 +5848,13 @@
         <v>4</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D87" s="14" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="15.5">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="15.75">
       <c r="A88" s="14">
         <v>87</v>
       </c>
@@ -5963,13 +5862,13 @@
         <v>4</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D88" s="14" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="15.5">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="15.75">
       <c r="A89" s="14">
         <v>88</v>
       </c>
@@ -5977,13 +5876,13 @@
         <v>4</v>
       </c>
       <c r="C89" s="14" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D89" s="14" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="15.5">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="15.75">
       <c r="A90" s="14">
         <v>89</v>
       </c>
@@ -5991,13 +5890,13 @@
         <v>4</v>
       </c>
       <c r="C90" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D90" s="14" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="15.5">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75">
       <c r="A91" s="14">
         <v>90</v>
       </c>
@@ -6005,13 +5904,13 @@
         <v>4</v>
       </c>
       <c r="C91" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D91" s="14" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="15.5">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75">
       <c r="A92" s="14">
         <v>91</v>
       </c>
@@ -6019,13 +5918,13 @@
         <v>4</v>
       </c>
       <c r="C92" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D92" s="14" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="15.5">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="15.75">
       <c r="A93" s="14">
         <v>92</v>
       </c>
@@ -6033,13 +5932,13 @@
         <v>4</v>
       </c>
       <c r="C93" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D93" s="14" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="15.5">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="15.75">
       <c r="A94" s="14">
         <v>93</v>
       </c>
@@ -6047,13 +5946,13 @@
         <v>4</v>
       </c>
       <c r="C94" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D94" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="15.75">
       <c r="A95" s="14">
         <v>94</v>
       </c>
@@ -6061,13 +5960,13 @@
         <v>4</v>
       </c>
       <c r="C95" s="14" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="D95" s="14" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="15.5">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="15.75">
       <c r="A96" s="14">
         <v>95</v>
       </c>
@@ -6075,13 +5974,13 @@
         <v>4</v>
       </c>
       <c r="C96" s="14" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D96" s="14" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="15.5">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="15.75">
       <c r="A97" s="14">
         <v>96</v>
       </c>
@@ -6089,13 +5988,13 @@
         <v>4</v>
       </c>
       <c r="C97" s="14" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="D97" s="14" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="15.5">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="15.75">
       <c r="A98" s="14">
         <v>105</v>
       </c>
@@ -6103,13 +6002,13 @@
         <v>4</v>
       </c>
       <c r="C98" s="14" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D98" s="14" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="15.5">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="15.75">
       <c r="A99" s="14">
         <v>108</v>
       </c>
@@ -6117,13 +6016,13 @@
         <v>4</v>
       </c>
       <c r="C99" s="14" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="D99" s="14" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="15.5">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="15.75">
       <c r="A100" s="14">
         <v>111</v>
       </c>
@@ -6131,13 +6030,13 @@
         <v>4</v>
       </c>
       <c r="C100" s="14" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D100" s="14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="15.5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="15.75">
       <c r="A101" s="14">
         <v>118</v>
       </c>
@@ -6145,13 +6044,13 @@
         <v>4</v>
       </c>
       <c r="C101" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D101" s="14" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="15.5">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="15.75">
       <c r="A102" s="14">
         <v>149</v>
       </c>
@@ -6159,13 +6058,13 @@
         <v>4</v>
       </c>
       <c r="C102" s="14" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D102" s="14" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="15.5">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="15.75">
       <c r="A103" s="14">
         <v>30</v>
       </c>
@@ -6173,13 +6072,13 @@
         <v>3</v>
       </c>
       <c r="C103" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D103" s="14" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.5">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.75">
       <c r="A104" s="14">
         <v>97</v>
       </c>
@@ -6187,13 +6086,13 @@
         <v>3</v>
       </c>
       <c r="C104" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D104" s="14" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="15.5">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="15.75">
       <c r="A105" s="14">
         <v>99</v>
       </c>
@@ -6201,13 +6100,13 @@
         <v>3</v>
       </c>
       <c r="C105" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D105" s="14" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="15.5">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="15.75">
       <c r="A106" s="14">
         <v>100</v>
       </c>
@@ -6215,13 +6114,13 @@
         <v>3</v>
       </c>
       <c r="C106" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D106" s="14" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="15.5">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="15.75">
       <c r="A107" s="14">
         <v>101</v>
       </c>
@@ -6229,13 +6128,13 @@
         <v>3</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D107" s="14" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="15.5">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="15.75">
       <c r="A108" s="14">
         <v>102</v>
       </c>
@@ -6243,13 +6142,13 @@
         <v>3</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D108" s="14" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="15.5">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="15.75">
       <c r="A109" s="14">
         <v>103</v>
       </c>
@@ -6257,13 +6156,13 @@
         <v>3</v>
       </c>
       <c r="C109" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D109" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="15.75">
       <c r="A110" s="14">
         <v>106</v>
       </c>
@@ -6271,13 +6170,13 @@
         <v>3</v>
       </c>
       <c r="C110" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D110" s="14" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="15.5">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="15.75">
       <c r="A111" s="14">
         <v>107</v>
       </c>
@@ -6285,13 +6184,13 @@
         <v>3</v>
       </c>
       <c r="C111" s="14" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D111" s="14" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" ht="15.5">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.75">
       <c r="A112" s="14">
         <v>109</v>
       </c>
@@ -6299,13 +6198,13 @@
         <v>3</v>
       </c>
       <c r="C112" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D112" s="14" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4" ht="15.5">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" ht="15.75">
       <c r="A113" s="14">
         <v>110</v>
       </c>
@@ -6313,13 +6212,13 @@
         <v>3</v>
       </c>
       <c r="C113" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D113" s="14" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" ht="15.5">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="15.75">
       <c r="A114" s="14">
         <v>112</v>
       </c>
@@ -6327,13 +6226,13 @@
         <v>3</v>
       </c>
       <c r="C114" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D114" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="15.75">
       <c r="A115" s="14">
         <v>113</v>
       </c>
@@ -6341,13 +6240,13 @@
         <v>3</v>
       </c>
       <c r="C115" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D115" s="14" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4" ht="15.5">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="15.75">
       <c r="A116" s="14">
         <v>114</v>
       </c>
@@ -6355,13 +6254,13 @@
         <v>3</v>
       </c>
       <c r="C116" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D116" s="14" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" ht="15.5">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="15.75">
       <c r="A117" s="14">
         <v>115</v>
       </c>
@@ -6369,13 +6268,13 @@
         <v>3</v>
       </c>
       <c r="C117" s="14" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D117" s="14" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" ht="15.5">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.75">
       <c r="A118" s="14">
         <v>119</v>
       </c>
@@ -6383,13 +6282,13 @@
         <v>3</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D118" s="14" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" ht="15.5">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.75">
       <c r="A119" s="14">
         <v>121</v>
       </c>
@@ -6397,13 +6296,13 @@
         <v>3</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D119" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="15.75">
       <c r="A120" s="14">
         <v>122</v>
       </c>
@@ -6411,13 +6310,13 @@
         <v>3</v>
       </c>
       <c r="C120" s="14" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="D120" s="14" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" ht="15.5">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="15.75">
       <c r="A121" s="14">
         <v>123</v>
       </c>
@@ -6425,13 +6324,13 @@
         <v>3</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D121" s="14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" ht="15.5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="15.75">
       <c r="A122" s="14">
         <v>124</v>
       </c>
@@ -6439,13 +6338,13 @@
         <v>3</v>
       </c>
       <c r="C122" s="14" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="D122" s="14" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="15.5">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="15.75">
       <c r="A123" s="14">
         <v>125</v>
       </c>
@@ -6453,13 +6352,13 @@
         <v>3</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D123" s="14" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" ht="15.5">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="15.75">
       <c r="A124" s="14">
         <v>126</v>
       </c>
@@ -6467,13 +6366,13 @@
         <v>3</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D124" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15.75">
       <c r="A125" s="14">
         <v>127</v>
       </c>
@@ -6481,13 +6380,13 @@
         <v>3</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D125" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15.75">
       <c r="A126" s="14">
         <v>128</v>
       </c>
@@ -6495,13 +6394,13 @@
         <v>3</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D126" s="14" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" ht="15.5">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="15.75">
       <c r="A127" s="14">
         <v>130</v>
       </c>
@@ -6509,13 +6408,13 @@
         <v>3</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D127" s="14" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="15.5">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="15.75">
       <c r="A128" s="14">
         <v>131</v>
       </c>
@@ -6523,13 +6422,13 @@
         <v>3</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="D128" s="14" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" ht="15.5">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="15.75">
       <c r="A129" s="14">
         <v>132</v>
       </c>
@@ -6537,13 +6436,13 @@
         <v>3</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="D129" s="14" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" ht="15.5">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" ht="15.75">
       <c r="A130" s="14">
         <v>154</v>
       </c>
@@ -6551,13 +6450,13 @@
         <v>3</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D130" s="14" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="15.5">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" ht="15.75">
       <c r="A131" s="14">
         <v>155</v>
       </c>
@@ -6565,13 +6464,13 @@
         <v>3</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="D131" s="14" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" ht="15.5">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15.75">
       <c r="A132" s="14">
         <v>156</v>
       </c>
@@ -6579,13 +6478,13 @@
         <v>3</v>
       </c>
       <c r="C132" s="14" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D132" s="14" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" ht="15.5">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15.75">
       <c r="A133" s="14">
         <v>170</v>
       </c>
@@ -6593,13 +6492,13 @@
         <v>3</v>
       </c>
       <c r="C133" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D133" s="14" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="15.5">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="15.75">
       <c r="A134" s="14">
         <v>171</v>
       </c>
@@ -6607,13 +6506,13 @@
         <v>3</v>
       </c>
       <c r="C134" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D134" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" ht="15.75">
       <c r="A135" s="14">
         <v>172</v>
       </c>
@@ -6621,13 +6520,13 @@
         <v>3</v>
       </c>
       <c r="C135" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D135" s="14" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" ht="15.5">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" ht="15.75">
       <c r="A136" s="14">
         <v>173</v>
       </c>
@@ -6635,13 +6534,13 @@
         <v>3</v>
       </c>
       <c r="C136" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D136" s="14" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" ht="15.5">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" ht="15.75">
       <c r="A137" s="14">
         <v>174</v>
       </c>
@@ -6649,13 +6548,13 @@
         <v>3</v>
       </c>
       <c r="C137" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D137" s="14" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="15.5">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="15.75">
       <c r="A138" s="14">
         <v>176</v>
       </c>
@@ -6663,13 +6562,13 @@
         <v>3</v>
       </c>
       <c r="C138" s="14" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D138" s="14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="15.5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="15.75">
       <c r="A139" s="14">
         <v>177</v>
       </c>
@@ -6677,13 +6576,13 @@
         <v>3</v>
       </c>
       <c r="C139" s="14" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="D139" s="14" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="15.5">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="15.75">
       <c r="A140" s="14">
         <v>98</v>
       </c>
@@ -6691,13 +6590,13 @@
         <v>2</v>
       </c>
       <c r="C140" s="14" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="D140" s="14" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" ht="15.5">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="15.75">
       <c r="A141" s="14">
         <v>104</v>
       </c>
@@ -6705,13 +6604,13 @@
         <v>2</v>
       </c>
       <c r="C141" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D141" s="14" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="15.5">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15.75">
       <c r="A142" s="14">
         <v>117</v>
       </c>
@@ -6719,13 +6618,13 @@
         <v>2</v>
       </c>
       <c r="C142" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D142" s="14" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="15.5">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="15.75">
       <c r="A143" s="14">
         <v>120</v>
       </c>
@@ -6733,13 +6632,13 @@
         <v>2</v>
       </c>
       <c r="C143" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D143" s="14" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="15.5">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="15.75">
       <c r="A144" s="14">
         <v>139</v>
       </c>
@@ -6747,13 +6646,13 @@
         <v>2</v>
       </c>
       <c r="C144" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D144" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15.75">
       <c r="A145" s="14">
         <v>140</v>
       </c>
@@ -6761,13 +6660,13 @@
         <v>2</v>
       </c>
       <c r="C145" s="14" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="D145" s="14" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" ht="15.5">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15.75">
       <c r="A146" s="14">
         <v>141</v>
       </c>
@@ -6775,13 +6674,13 @@
         <v>2</v>
       </c>
       <c r="C146" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D146" s="14" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" ht="15.5">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15.75">
       <c r="A147" s="14">
         <v>142</v>
       </c>
@@ -6789,13 +6688,13 @@
         <v>2</v>
       </c>
       <c r="C147" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D147" s="14" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" ht="15.5">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15.75">
       <c r="A148" s="14">
         <v>143</v>
       </c>
@@ -6803,13 +6702,13 @@
         <v>2</v>
       </c>
       <c r="C148" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D148" s="14" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="15.5">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="15.75">
       <c r="A149" s="14">
         <v>144</v>
       </c>
@@ -6817,13 +6716,13 @@
         <v>2</v>
       </c>
       <c r="C149" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D149" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="15.75">
       <c r="A150" s="14">
         <v>145</v>
       </c>
@@ -6831,13 +6730,13 @@
         <v>2</v>
       </c>
       <c r="C150" s="14" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D150" s="14" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="15.5">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15.75">
       <c r="A151" s="14">
         <v>146</v>
       </c>
@@ -6845,13 +6744,13 @@
         <v>2</v>
       </c>
       <c r="C151" s="14" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="D151" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="15.5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="15.75">
       <c r="A152" s="14">
         <v>147</v>
       </c>
@@ -6859,13 +6758,13 @@
         <v>2</v>
       </c>
       <c r="C152" s="14" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" ht="15.5">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" ht="15.75">
       <c r="A153" s="14">
         <v>148</v>
       </c>
@@ -6873,13 +6772,13 @@
         <v>2</v>
       </c>
       <c r="C153" s="14" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="D153" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" ht="15.5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" ht="15.75">
       <c r="A154" s="14">
         <v>150</v>
       </c>
@@ -6887,13 +6786,13 @@
         <v>2</v>
       </c>
       <c r="C154" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="15.75">
       <c r="A155" s="14">
         <v>157</v>
       </c>
@@ -6901,13 +6800,13 @@
         <v>2</v>
       </c>
       <c r="C155" s="14" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="D155" s="14" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="15.5">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="15.75">
       <c r="A156" s="14">
         <v>158</v>
       </c>
@@ -6915,13 +6814,13 @@
         <v>2</v>
       </c>
       <c r="C156" s="14" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D156" s="14" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="15.5">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="15.75">
       <c r="A157" s="14">
         <v>159</v>
       </c>
@@ -6929,13 +6828,13 @@
         <v>2</v>
       </c>
       <c r="C157" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" ht="15.5">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="15.75">
       <c r="A158" s="14">
         <v>160</v>
       </c>
@@ -6943,13 +6842,13 @@
         <v>2</v>
       </c>
       <c r="C158" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D158" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="15.75">
       <c r="A159" s="14">
         <v>161</v>
       </c>
@@ -6957,13 +6856,13 @@
         <v>2</v>
       </c>
       <c r="C159" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D159" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15.75">
       <c r="A160" s="14">
         <v>162</v>
       </c>
@@ -6971,13 +6870,13 @@
         <v>2</v>
       </c>
       <c r="C160" s="14" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="15.5">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="15.75">
       <c r="A161" s="14">
         <v>163</v>
       </c>
@@ -6985,13 +6884,13 @@
         <v>2</v>
       </c>
       <c r="C161" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D161" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="15.75">
       <c r="A162" s="14">
         <v>164</v>
       </c>
@@ -6999,13 +6898,13 @@
         <v>2</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="15.5">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="15.75">
       <c r="A163" s="14">
         <v>165</v>
       </c>
@@ -7013,13 +6912,13 @@
         <v>2</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="15.5">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="15.75">
       <c r="A164" s="14">
         <v>166</v>
       </c>
@@ -7027,13 +6926,13 @@
         <v>2</v>
       </c>
       <c r="C164" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D164" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="15.75">
       <c r="A165" s="14">
         <v>167</v>
       </c>
@@ -7041,13 +6940,13 @@
         <v>2</v>
       </c>
       <c r="C165" s="14" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="15.5">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="15.75">
       <c r="A166" s="14">
         <v>168</v>
       </c>
@@ -7055,13 +6954,13 @@
         <v>2</v>
       </c>
       <c r="C166" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D166" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="15.75">
       <c r="A167" s="14">
         <v>175</v>
       </c>
@@ -7069,13 +6968,13 @@
         <v>2</v>
       </c>
       <c r="C167" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D167" s="14" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="15.5">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="15.75">
       <c r="A168" s="14">
         <v>178</v>
       </c>
@@ -7083,13 +6982,13 @@
         <v>2</v>
       </c>
       <c r="C168" s="14" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D168" s="14" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" ht="15.5">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="15.75">
       <c r="A169" s="14">
         <v>179</v>
       </c>
@@ -7097,13 +6996,13 @@
         <v>2</v>
       </c>
       <c r="C169" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D169" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="15.75">
       <c r="A170" s="14">
         <v>180</v>
       </c>
@@ -7111,13 +7010,13 @@
         <v>2</v>
       </c>
       <c r="C170" s="14" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D170" s="14" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="15.5">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="15.75">
       <c r="A171" s="14">
         <v>181</v>
       </c>
@@ -7125,13 +7024,13 @@
         <v>2</v>
       </c>
       <c r="C171" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D171" s="14" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" ht="15.5">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" ht="15.75">
       <c r="A172" s="14">
         <v>182</v>
       </c>
@@ -7139,13 +7038,13 @@
         <v>2</v>
       </c>
       <c r="C172" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D172" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="15.75">
       <c r="A173" s="14">
         <v>204</v>
       </c>
@@ -7153,13 +7052,13 @@
         <v>2</v>
       </c>
       <c r="C173" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D173" s="14" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="15.5">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="15.75">
       <c r="A174" s="14">
         <v>251</v>
       </c>
@@ -7167,13 +7066,13 @@
         <v>2</v>
       </c>
       <c r="C174" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D174" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="15.75">
       <c r="A175" s="14">
         <v>133</v>
       </c>
@@ -7181,13 +7080,13 @@
         <v>1</v>
       </c>
       <c r="C175" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D175" s="14" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" ht="15.5">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="15.75">
       <c r="A176" s="14">
         <v>134</v>
       </c>
@@ -7195,13 +7094,13 @@
         <v>1</v>
       </c>
       <c r="C176" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D176" s="14" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" ht="15.5">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="15.75">
       <c r="A177" s="14">
         <v>135</v>
       </c>
@@ -7209,13 +7108,13 @@
         <v>1</v>
       </c>
       <c r="C177" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" ht="15.75">
       <c r="A178" s="14">
         <v>136</v>
       </c>
@@ -7223,13 +7122,13 @@
         <v>1</v>
       </c>
       <c r="C178" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D178" s="14" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" ht="15.5">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" ht="15.75">
       <c r="A179" s="14">
         <v>138</v>
       </c>
@@ -7237,13 +7136,13 @@
         <v>1</v>
       </c>
       <c r="C179" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D179" s="14" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="15.5">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="15.75">
       <c r="A180" s="14">
         <v>151</v>
       </c>
@@ -7251,13 +7150,13 @@
         <v>1</v>
       </c>
       <c r="C180" s="14" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D180" s="14" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" ht="15.5">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" ht="15.75">
       <c r="A181" s="14">
         <v>152</v>
       </c>
@@ -7265,13 +7164,13 @@
         <v>1</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D181" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" ht="15.75">
       <c r="A182" s="14">
         <v>153</v>
       </c>
@@ -7279,13 +7178,13 @@
         <v>1</v>
       </c>
       <c r="C182" s="14" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D182" s="14" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" ht="15.5">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" ht="15.75">
       <c r="A183" s="14">
         <v>183</v>
       </c>
@@ -7293,13 +7192,13 @@
         <v>1</v>
       </c>
       <c r="C183" s="14" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="D183" s="14" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" ht="15.5">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" ht="15.75">
       <c r="A184" s="14">
         <v>184</v>
       </c>
@@ -7307,13 +7206,13 @@
         <v>1</v>
       </c>
       <c r="C184" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" ht="15.5">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" ht="15.75">
       <c r="A185" s="14">
         <v>185</v>
       </c>
@@ -7321,13 +7220,13 @@
         <v>1</v>
       </c>
       <c r="C185" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D185" s="14" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" ht="15.5">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" ht="15.75">
       <c r="A186" s="14">
         <v>186</v>
       </c>
@@ -7335,13 +7234,13 @@
         <v>1</v>
       </c>
       <c r="C186" s="14" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D186" s="14" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" ht="15.5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" ht="15.75">
       <c r="A187" s="14">
         <v>187</v>
       </c>
@@ -7349,13 +7248,13 @@
         <v>1</v>
       </c>
       <c r="C187" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D187" s="14" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" ht="15.5">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" ht="15.75">
       <c r="A188" s="14">
         <v>189</v>
       </c>
@@ -7363,13 +7262,13 @@
         <v>1</v>
       </c>
       <c r="C188" s="14" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="D188" s="14" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" ht="15.5">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" ht="15.75">
       <c r="A189" s="14">
         <v>190</v>
       </c>
@@ -7377,13 +7276,13 @@
         <v>1</v>
       </c>
       <c r="C189" s="14" t="s">
-        <v>514</v>
+        <v>503</v>
       </c>
       <c r="D189" s="14" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" ht="15.5">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" ht="15.75">
       <c r="A190" s="14">
         <v>191</v>
       </c>
@@ -7391,13 +7290,13 @@
         <v>1</v>
       </c>
       <c r="C190" s="14" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="D190" s="14" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="15.5">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="15.75">
       <c r="A191" s="14">
         <v>192</v>
       </c>
@@ -7405,13 +7304,13 @@
         <v>1</v>
       </c>
       <c r="C191" s="14" t="s">
-        <v>517</v>
+        <v>506</v>
       </c>
       <c r="D191" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="15.5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="15.75">
       <c r="A192" s="14">
         <v>193</v>
       </c>
@@ -7419,13 +7318,13 @@
         <v>1</v>
       </c>
       <c r="C192" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D192" s="14" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" ht="15.5">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" ht="15.75">
       <c r="A193" s="14">
         <v>194</v>
       </c>
@@ -7433,13 +7332,13 @@
         <v>1</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>519</v>
+        <v>508</v>
       </c>
       <c r="D193" s="14" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" ht="15.5">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" ht="15.75">
       <c r="A194" s="14">
         <v>195</v>
       </c>
@@ -7447,13 +7346,13 @@
         <v>1</v>
       </c>
       <c r="C194" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D194" s="14" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" ht="15.5">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" ht="15.75">
       <c r="A195" s="14">
         <v>196</v>
       </c>
@@ -7461,13 +7360,13 @@
         <v>1</v>
       </c>
       <c r="C195" s="14" t="s">
-        <v>522</v>
+        <v>511</v>
       </c>
       <c r="D195" s="14" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" ht="15.5">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" ht="15.75">
       <c r="A196" s="14">
         <v>197</v>
       </c>
@@ -7475,13 +7374,13 @@
         <v>1</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D196" s="14" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" ht="15.5">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" ht="15.75">
       <c r="A197" s="14">
         <v>198</v>
       </c>
@@ -7489,13 +7388,13 @@
         <v>1</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>526</v>
+        <v>515</v>
       </c>
       <c r="D197" s="14" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" ht="15.5">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" ht="15.75">
       <c r="A198" s="14">
         <v>199</v>
       </c>
@@ -7503,13 +7402,13 @@
         <v>1</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D198" s="14" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" ht="15.5">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" ht="15.75">
       <c r="A199" s="14">
         <v>200</v>
       </c>
@@ -7517,13 +7416,13 @@
         <v>1</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="D199" s="14" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" ht="15.5">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" ht="15.75">
       <c r="A200" s="14">
         <v>201</v>
       </c>
@@ -7531,13 +7430,13 @@
         <v>1</v>
       </c>
       <c r="C200" s="14" t="s">
-        <v>492</v>
+        <v>481</v>
       </c>
       <c r="D200" s="14" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" ht="15.5">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" ht="15.75">
       <c r="A201" s="14">
         <v>202</v>
       </c>
@@ -7545,13 +7444,13 @@
         <v>1</v>
       </c>
       <c r="C201" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D201" s="14" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" ht="15.5">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" ht="15.75">
       <c r="A202" s="14">
         <v>203</v>
       </c>
@@ -7559,13 +7458,13 @@
         <v>1</v>
       </c>
       <c r="C202" s="14" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="D202" s="14" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" ht="15.5">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" ht="15.75">
       <c r="A203" s="14">
         <v>205</v>
       </c>
@@ -7573,13 +7472,13 @@
         <v>1</v>
       </c>
       <c r="C203" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D203" s="14" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" ht="15.5">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" ht="15.75">
       <c r="A204" s="14">
         <v>206</v>
       </c>
@@ -7587,13 +7486,13 @@
         <v>1</v>
       </c>
       <c r="C204" s="14" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="D204" s="14" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="15.5">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" ht="15.75">
       <c r="A205" s="14">
         <v>207</v>
       </c>
@@ -7601,13 +7500,13 @@
         <v>1</v>
       </c>
       <c r="C205" s="14" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="D205" s="14" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" ht="15.5">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" ht="15.75">
       <c r="A206" s="14">
         <v>208</v>
       </c>
@@ -7615,13 +7514,13 @@
         <v>1</v>
       </c>
       <c r="C206" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D206" s="14" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" ht="15.5">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" ht="15.75">
       <c r="A207" s="14">
         <v>209</v>
       </c>
@@ -7629,13 +7528,13 @@
         <v>1</v>
       </c>
       <c r="C207" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D207" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" ht="15.75">
       <c r="A208" s="14">
         <v>210</v>
       </c>
@@ -7643,13 +7542,13 @@
         <v>1</v>
       </c>
       <c r="C208" s="14" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D208" s="14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" ht="15.5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" ht="15.75">
       <c r="A209" s="14">
         <v>211</v>
       </c>
@@ -7657,13 +7556,13 @@
         <v>1</v>
       </c>
       <c r="C209" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D209" s="14" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" ht="15.5">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" ht="15.75">
       <c r="A210" s="14">
         <v>212</v>
       </c>
@@ -7671,13 +7570,13 @@
         <v>1</v>
       </c>
       <c r="C210" s="14" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="D210" s="14" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" ht="15.5">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" ht="15.75">
       <c r="A211" s="14">
         <v>213</v>
       </c>
@@ -7685,13 +7584,13 @@
         <v>1</v>
       </c>
       <c r="C211" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D211" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" ht="15.75">
       <c r="A212" s="14">
         <v>214</v>
       </c>
@@ -7699,13 +7598,13 @@
         <v>1</v>
       </c>
       <c r="C212" s="14" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="D212" s="14" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" ht="15.5">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" ht="15.75">
       <c r="A213" s="14">
         <v>215</v>
       </c>
@@ -7713,13 +7612,13 @@
         <v>1</v>
       </c>
       <c r="C213" s="14" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D213" s="14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="15.5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" ht="15.75">
       <c r="A214" s="14">
         <v>217</v>
       </c>
@@ -7727,13 +7626,13 @@
         <v>1</v>
       </c>
       <c r="C214" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D214" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" ht="15.75">
       <c r="A215" s="14">
         <v>219</v>
       </c>
@@ -7741,13 +7640,13 @@
         <v>1</v>
       </c>
       <c r="C215" s="14" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="D215" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" ht="15.5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" ht="15.75">
       <c r="A216" s="14">
         <v>220</v>
       </c>
@@ -7755,13 +7654,13 @@
         <v>1</v>
       </c>
       <c r="C216" s="14" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="D216" s="14" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" ht="15.5">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" ht="15.75">
       <c r="A217" s="14">
         <v>221</v>
       </c>
@@ -7769,13 +7668,13 @@
         <v>1</v>
       </c>
       <c r="C217" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D217" s="14" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" ht="15.5">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="15.75">
       <c r="A218" s="14">
         <v>222</v>
       </c>
@@ -7783,13 +7682,13 @@
         <v>1</v>
       </c>
       <c r="C218" s="14" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="D218" s="14" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" ht="15.5">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="15.75">
       <c r="A219" s="14">
         <v>223</v>
       </c>
@@ -7797,13 +7696,13 @@
         <v>1</v>
       </c>
       <c r="C219" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D219" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" ht="15.75">
       <c r="A220" s="14">
         <v>225</v>
       </c>
@@ -7811,13 +7710,13 @@
         <v>1</v>
       </c>
       <c r="C220" s="14" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="D220" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="15.5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" ht="15.75">
       <c r="A221" s="14">
         <v>230</v>
       </c>
@@ -7825,13 +7724,13 @@
         <v>1</v>
       </c>
       <c r="C221" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D221" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="222" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" ht="15.75">
       <c r="A222" s="14">
         <v>234</v>
       </c>
@@ -7839,13 +7738,13 @@
         <v>1</v>
       </c>
       <c r="C222" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D222" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" ht="15.75">
       <c r="A223" s="14">
         <v>236</v>
       </c>
@@ -7853,13 +7752,13 @@
         <v>1</v>
       </c>
       <c r="C223" s="14" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D223" s="14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" ht="15.5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="15.75">
       <c r="A224" s="14">
         <v>237</v>
       </c>
@@ -7867,13 +7766,13 @@
         <v>1</v>
       </c>
       <c r="C224" s="14" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="D224" s="14" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" ht="15.5">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="15.75">
       <c r="A225" s="14">
         <v>238</v>
       </c>
@@ -7881,13 +7780,13 @@
         <v>1</v>
       </c>
       <c r="C225" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D225" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" ht="15.75">
       <c r="A226" s="14">
         <v>240</v>
       </c>
@@ -7895,13 +7794,13 @@
         <v>1</v>
       </c>
       <c r="C226" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D226" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" ht="15.75">
       <c r="A227" s="14">
         <v>243</v>
       </c>
@@ -7909,13 +7808,13 @@
         <v>1</v>
       </c>
       <c r="C227" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D227" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="228" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" ht="15.75">
       <c r="A228" s="14">
         <v>249</v>
       </c>
@@ -7923,13 +7822,13 @@
         <v>1</v>
       </c>
       <c r="C228" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D228" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" ht="15.75">
       <c r="A229" s="14">
         <v>250</v>
       </c>
@@ -7937,13 +7836,13 @@
         <v>1</v>
       </c>
       <c r="C229" s="14" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D229" s="14" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" ht="15.5">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" ht="15.75">
       <c r="A230" s="14">
         <v>252</v>
       </c>
@@ -7951,13 +7850,13 @@
         <v>1</v>
       </c>
       <c r="C230" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D230" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" ht="15.75">
       <c r="A231" s="14">
         <v>254</v>
       </c>
@@ -7965,13 +7864,13 @@
         <v>1</v>
       </c>
       <c r="C231" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D231" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" ht="15.75">
       <c r="A232" s="14">
         <v>257</v>
       </c>
@@ -7979,13 +7878,13 @@
         <v>1</v>
       </c>
       <c r="C232" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D232" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="233" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" ht="15.75">
       <c r="A233" s="14">
         <v>258</v>
       </c>
@@ -7993,13 +7892,13 @@
         <v>1</v>
       </c>
       <c r="C233" s="14" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="D233" s="14" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" ht="15.5">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" ht="15.75">
       <c r="A234" s="14">
         <v>260</v>
       </c>
@@ -8007,13 +7906,13 @@
         <v>1</v>
       </c>
       <c r="C234" s="14" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="D234" s="14" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" ht="15.5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" ht="15.75">
       <c r="A235" s="14">
         <v>264</v>
       </c>
@@ -8021,13 +7920,13 @@
         <v>1</v>
       </c>
       <c r="C235" s="14" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="D235" s="14" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" ht="15.5">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" ht="15.75">
       <c r="A236" s="14">
         <v>266</v>
       </c>
@@ -8035,13 +7934,13 @@
         <v>1</v>
       </c>
       <c r="C236" s="14" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="D236" s="14" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" ht="15.5">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" ht="15.75">
       <c r="A237" s="14">
         <v>270</v>
       </c>
@@ -8049,13 +7948,13 @@
         <v>1</v>
       </c>
       <c r="C237" s="14" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="D237" s="14" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" ht="15.5">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" ht="15.75">
       <c r="A238" s="14">
         <v>273</v>
       </c>
@@ -8063,13 +7962,13 @@
         <v>1</v>
       </c>
       <c r="C238" s="14" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="D238" s="14" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" ht="15.5">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" ht="15.75">
       <c r="A239" s="14">
         <v>271</v>
       </c>
@@ -8077,13 +7976,13 @@
         <v>1</v>
       </c>
       <c r="C239" s="14" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="D239" s="14" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" ht="15.5">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" ht="15.75">
       <c r="A240" s="14">
         <v>272</v>
       </c>
@@ -8091,13 +7990,13 @@
         <v>1</v>
       </c>
       <c r="C240" s="14" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="D240" s="14" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" ht="15.5">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" ht="15.75">
       <c r="A241" s="14">
         <v>267</v>
       </c>
@@ -8105,13 +8004,13 @@
         <v>1</v>
       </c>
       <c r="C241" s="14" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="D241" s="14" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" ht="15.5">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" ht="15.75">
       <c r="A242" s="14">
         <v>268</v>
       </c>
@@ -8119,13 +8018,13 @@
         <v>1</v>
       </c>
       <c r="C242" s="14" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="D242" s="14" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" ht="15.5">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" ht="15.75">
       <c r="A243" s="14">
         <v>269</v>
       </c>
@@ -8133,13 +8032,13 @@
         <v>1</v>
       </c>
       <c r="C243" s="14" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="D243" s="14" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" ht="15.5">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" ht="15.75">
       <c r="A244" s="14">
         <v>262</v>
       </c>
@@ -8147,13 +8046,13 @@
         <v>1</v>
       </c>
       <c r="C244" s="14" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="D244" s="14" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" ht="15.5">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" ht="15.75">
       <c r="A245" s="14">
         <v>263</v>
       </c>
@@ -8161,13 +8060,13 @@
         <v>1</v>
       </c>
       <c r="C245" s="14" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="D245" s="14" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" ht="15.5">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" ht="15.75">
       <c r="A246" s="14">
         <v>265</v>
       </c>
@@ -8175,13 +8074,13 @@
         <v>1</v>
       </c>
       <c r="C246" s="14" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="D246" s="14" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" ht="15.5">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" ht="15.75">
       <c r="A247" s="14">
         <v>261</v>
       </c>
@@ -8189,10 +8088,10 @@
         <v>1</v>
       </c>
       <c r="C247" s="14" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="D247" s="14" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
